--- a/Tarefas/Monstro da Semana 01/questionario_turma_2023.xlsx
+++ b/Tarefas/Monstro da Semana 01/questionario_turma_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_544\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8492E602-097D-46D8-90E3-218771C68AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C41F2A-8118-4FFF-8783-60C82A2BB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
